--- a/common/Spell.xlsx
+++ b/common/Spell.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
   <si>
     <t>序号</t>
   </si>
@@ -25,43 +25,273 @@
     <t>效果描述</t>
   </si>
   <si>
-    <t>目标类型
-0=无
+    <r>
+      <t xml:space="preserve">目标类型
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0=无
 1=选择卡牌
 2=随机卡牌
 3=选择红颜
 4=随机红颜</t>
-  </si>
-  <si>
-    <t>效果类型
-0=无
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">效果类型
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0=无
 1=增加属性
 2=增加经验
 3=增加次数
-4=增加亲密度
-5=增加魅力值
-6=增加资源</t>
-  </si>
-  <si>
-    <t>效果参数
-属性=属性道具id
+4=增加资源
+5=增加数值</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">效果参数
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>属性=属性道具id
 经验=经验道具id
 次数=次数道具id
-资源=资源道具id</t>
-  </si>
-  <si>
-    <t>效果值类型
-1=值
-2=倍数</t>
-  </si>
-  <si>
-    <t>效果值</t>
+资源=资源道具id
+数值=数值道具id</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">效果值类型
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1=固定值
+2=随机值
+3=倍率值</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">效果值
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>固定值=数值
+随机值=min,max
+倍率值=数值/100</t>
+    </r>
   </si>
   <si>
     <t>消耗道具id</t>
   </si>
   <si>
     <t>消耗道具数量</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">id </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>int</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">name </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>string</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">intro </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>string</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">target_type </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>int</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">effect_type </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>int</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">effect_par </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>int</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">effect_val_type </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>int</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">effect_val </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>array</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">consume_item </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>int</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">consume_num </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>int</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -75,7 +305,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,12 +315,34 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -99,8 +351,97 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -108,9 +449,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -122,113 +471,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+    </font>
+    <font>
+      <i/>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <color theme="0"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -237,192 +494,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF19A382"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -431,52 +694,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="medium">
+        <color auto="1"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="medium">
+        <color auto="1"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="medium">
+        <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -515,7 +743,37 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -524,7 +782,27 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -536,10 +814,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -548,148 +826,157 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -744,6 +1031,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="0019A382"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1012,62 +1304,98 @@
   <sheetPr/>
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="4" max="4" width="11.25" customWidth="1"/>
-    <col min="5" max="5" width="12.5" customWidth="1"/>
-    <col min="6" max="6" width="15.25" customWidth="1"/>
-    <col min="7" max="7" width="10.25" customWidth="1"/>
-    <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="12.875" customWidth="1"/>
-    <col min="12" max="12" width="10.875" customWidth="1"/>
-    <col min="14" max="14" width="12.625"/>
+    <col min="1" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="12.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.75" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9" style="1"/>
+    <col min="12" max="12" width="10.875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9" style="1"/>
+    <col min="14" max="14" width="12.625" style="1"/>
+    <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="108" spans="1:10">
-      <c r="A1" t="s">
+    <row r="1" ht="129.75" spans="1:10">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="2" ht="32.25" spans="1:10">
+      <c r="A2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="12:13">
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
     </row>
     <row r="11" spans="10:12">
-      <c r="J11" s="3"/>
-      <c r="K11"/>
-      <c r="L11" s="2"/>
+      <c r="J11" s="6"/>
+      <c r="L11" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/common/Spell.xlsx
+++ b/common/Spell.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
   <si>
     <t>序号</t>
   </si>
@@ -26,6 +26,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">目标类型
 </t>
     </r>
@@ -45,7 +52,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">效果类型
+      <t xml:space="preserve">增加属性id
 </t>
     </r>
     <r>
@@ -55,13 +62,11 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t>0=无
-1=增加属性
-2=增加经验
-3=增加次数
-4=增加资源
-5=增加数值</t>
-    </r>
+      <t xml:space="preserve">属性=道具id
+</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -70,31 +75,6 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">效果参数
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>属性=属性道具id
-经验=经验道具id
-次数=次数道具id
-资源=资源道具id
-数值=数值道具id</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">效果值类型
 </t>
     </r>
@@ -112,6 +92,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">效果值
 </t>
     </r>
@@ -135,6 +122,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">id </t>
     </r>
     <r>
@@ -151,6 +145,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">name </t>
     </r>
     <r>
@@ -167,6 +168,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">intro </t>
     </r>
     <r>
@@ -183,6 +191,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">target_type </t>
     </r>
     <r>
@@ -199,7 +214,14 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">effect_type </t>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">effect_par </t>
     </r>
     <r>
       <rPr>
@@ -215,7 +237,14 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">effect_par </t>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">effect_val_type </t>
     </r>
     <r>
       <rPr>
@@ -231,7 +260,14 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">effect_val_type </t>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">effect_val </t>
     </r>
     <r>
       <rPr>
@@ -242,12 +278,19 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t>int</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">effect_val </t>
+      <t>array</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">consume_item </t>
     </r>
     <r>
       <rPr>
@@ -258,27 +301,18 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t>array</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">consume_item </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <u/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
       <t>int</t>
     </r>
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">consume_num </t>
     </r>
     <r>
@@ -327,9 +361,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -343,6 +383,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -353,6 +422,45 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -362,94 +470,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -463,11 +483,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -506,13 +540,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -524,37 +684,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -566,121 +696,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -709,17 +743,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -741,23 +778,25 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -778,6 +817,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -786,26 +840,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -814,10 +848,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -826,144 +860,141 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1302,30 +1333,29 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="3" width="9" style="1"/>
     <col min="4" max="4" width="12.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="15.75" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9" style="1"/>
-    <col min="12" max="12" width="10.875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9" style="1"/>
-    <col min="14" max="14" width="12.625" style="1"/>
-    <col min="15" max="16384" width="9" style="1"/>
+    <col min="5" max="5" width="15.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.75" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9" style="1"/>
+    <col min="11" max="11" width="10.875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9" style="1"/>
+    <col min="13" max="13" width="12.625" style="1"/>
+    <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="129.75" spans="1:10">
+    <row r="1" ht="97.5" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1335,67 +1365,61 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+    </row>
+    <row r="2" ht="32.25" spans="1:9">
+      <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="B2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" ht="32.25" spans="1:10">
-      <c r="A2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>19</v>
-      </c>
+    <row r="9" spans="11:12">
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
     </row>
-    <row r="9" spans="12:13">
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-    </row>
-    <row r="11" spans="10:12">
-      <c r="J11" s="6"/>
-      <c r="L11" s="5"/>
+    <row r="11" spans="9:11">
+      <c r="I11" s="5"/>
+      <c r="K11" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/common/Spell.xlsx
+++ b/common/Spell.xlsx
@@ -26,13 +26,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">目标类型
 </t>
     </r>
@@ -47,11 +40,19 @@
 1=选择卡牌
 2=随机卡牌
 3=选择红颜
-4=随机红颜</t>
-    </r>
-  </si>
-  <si>
-    <r>
+4=随机红颜
+5=知交好友</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">增加属性id
 </t>
     </r>
@@ -333,11 +334,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -361,6 +362,67 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -369,7 +431,38 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -383,123 +476,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -540,55 +541,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -600,121 +715,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -746,17 +747,34 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -778,11 +796,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -802,21 +827,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -831,15 +841,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -848,10 +849,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -860,16 +861,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -878,115 +879,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1336,7 +1337,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1355,7 +1356,7 @@
     <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="97.5" spans="1:9">
+    <row r="1" ht="114.75" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>

--- a/common/Spell.xlsx
+++ b/common/Spell.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50">
   <si>
     <t>序号</t>
   </si>
@@ -37,9 +37,9 @@
         <charset val="134"/>
       </rPr>
       <t>0=无
-1=选择卡牌
+1=选择已有卡牌
 2=随机卡牌
-3=选择红颜
+3=选择已有红颜
 4=随机红颜
 5=知交好友</t>
     </r>
@@ -116,10 +116,10 @@
     </r>
   </si>
   <si>
-    <t>消耗道具id</t>
-  </si>
-  <si>
-    <t>消耗道具数量</t>
+    <t>消耗额外道具id</t>
+  </si>
+  <si>
+    <t>消耗额外道具数量</t>
   </si>
   <si>
     <r>
@@ -327,17 +327,112 @@
       </rPr>
       <t>int</t>
     </r>
+  </si>
+  <si>
+    <t>威严玉露</t>
+  </si>
+  <si>
+    <t>增加卡牌100点威严属性</t>
+  </si>
+  <si>
+    <t>才华玉露</t>
+  </si>
+  <si>
+    <t>增加卡牌100点才华属性</t>
+  </si>
+  <si>
+    <t>聪慧玉露</t>
+  </si>
+  <si>
+    <t>增加卡牌100点聪慧属性</t>
+  </si>
+  <si>
+    <t>魅力玉露</t>
+  </si>
+  <si>
+    <t>增加卡牌100点魅力属性</t>
+  </si>
+  <si>
+    <t>威严清浆</t>
+  </si>
+  <si>
+    <t>增加卡牌500点威严属性</t>
+  </si>
+  <si>
+    <t>才华清浆</t>
+  </si>
+  <si>
+    <t>增加卡牌500点才华属性</t>
+  </si>
+  <si>
+    <t>聪慧清浆</t>
+  </si>
+  <si>
+    <t>增加卡牌500点聪慧属性</t>
+  </si>
+  <si>
+    <t>魅力清浆</t>
+  </si>
+  <si>
+    <t>增加卡牌500点魅力属性</t>
+  </si>
+  <si>
+    <t>威严灵泉</t>
+  </si>
+  <si>
+    <t>增加卡牌1000点威严属性</t>
+  </si>
+  <si>
+    <t>才华灵泉</t>
+  </si>
+  <si>
+    <t>增加卡牌1000点才华属性</t>
+  </si>
+  <si>
+    <t>聪慧灵泉</t>
+  </si>
+  <si>
+    <t>增加卡牌1000点聪慧属性</t>
+  </si>
+  <si>
+    <t>魅力灵泉</t>
+  </si>
+  <si>
+    <t>增加卡牌1000点魅力属性</t>
+  </si>
+  <si>
+    <t>威严天酿</t>
+  </si>
+  <si>
+    <t>增加卡牌5000点威严属性</t>
+  </si>
+  <si>
+    <t>才华天酿</t>
+  </si>
+  <si>
+    <t>增加卡牌5000点才华属性</t>
+  </si>
+  <si>
+    <t>聪慧天酿</t>
+  </si>
+  <si>
+    <t>增加卡牌5000点聪慧属性</t>
+  </si>
+  <si>
+    <t>魅力天酿</t>
+  </si>
+  <si>
+    <t>增加卡牌5000点魅力属性</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -360,6 +455,119 @@
       <color theme="0"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -370,9 +578,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -386,126 +601,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="微软雅黑"/>
@@ -541,169 +636,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -744,22 +839,35 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -779,26 +887,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -807,7 +906,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -827,17 +926,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -849,10 +944,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -861,133 +956,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1004,10 +1099,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1334,17 +1429,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="12.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.25" style="1" customWidth="1"/>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="32" style="1" customWidth="1"/>
+    <col min="4" max="5" width="15.25" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.375" style="1" customWidth="1"/>
     <col min="7" max="7" width="15.625" style="1" customWidth="1"/>
     <col min="8" max="8" width="14.375" style="1" customWidth="1"/>
@@ -1414,13 +1509,483 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="11:12">
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
+    <row r="3" spans="1:9">
+      <c r="A3" s="4">
+        <v>101001</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4">
+        <v>114001</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>100</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="9:11">
-      <c r="I11" s="5"/>
-      <c r="K11" s="4"/>
+    <row r="4" spans="1:12">
+      <c r="A4" s="4">
+        <v>101002</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4">
+        <v>114002</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>100</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="4">
+        <v>101003</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4">
+        <v>114003</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>100</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="4">
+        <v>101004</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4">
+        <v>114004</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>100</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="4">
+        <v>101011</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4">
+        <v>114001</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>500</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="4">
+        <v>101012</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="4">
+        <v>114002</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>500</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="4">
+        <v>101013</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="4">
+        <v>114003</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>500</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="4">
+        <v>101014</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="4">
+        <v>114004</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>500</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="5"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="4">
+        <v>101021</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="4">
+        <v>114001</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1000</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="4">
+        <v>101022</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="4">
+        <v>114002</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1000</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="4">
+        <v>101023</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="4">
+        <v>114003</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1000</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="4">
+        <v>101024</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="4">
+        <v>114004</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1000</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="4">
+        <v>101031</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="4">
+        <v>114001</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1">
+        <v>5000</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="4">
+        <v>101032</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="4">
+        <v>114002</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>5000</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="4">
+        <v>101033</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="4">
+        <v>114003</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1">
+        <v>5000</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="4">
+        <v>101034</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="4">
+        <v>114004</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1">
+        <v>5000</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/common/Spell.xlsx
+++ b/common/Spell.xlsx
@@ -430,8 +430,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -464,16 +464,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -481,28 +474,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -516,11 +487,78 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -532,23 +570,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -562,32 +586,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -636,19 +636,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -660,115 +780,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -780,37 +804,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -839,26 +839,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -902,11 +887,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -928,6 +919,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -944,10 +944,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -956,133 +956,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1432,7 +1432,7 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>

--- a/common/Spell.xlsx
+++ b/common/Spell.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83">
   <si>
     <t>序号</t>
   </si>
@@ -36,7 +36,7 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t>0=无
+      <t>0=无(玩家自身)
 1=选择已有卡牌
 2=随机卡牌
 3=选择已有红颜
@@ -46,13 +46,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">增加属性id
 </t>
     </r>
@@ -93,13 +86,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">效果值
 </t>
     </r>
@@ -215,6 +201,21 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">effect_par </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>array</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <rPr>
         <b/>
         <sz val="11"/>
@@ -222,7 +223,7 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">effect_par </t>
+      <t xml:space="preserve">effect_val_type </t>
     </r>
     <r>
       <rPr>
@@ -245,7 +246,30 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">effect_val_type </t>
+      <t xml:space="preserve">effect_val </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>array</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">consume_item </t>
     </r>
     <r>
       <rPr>
@@ -268,30 +292,7 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">effect_val </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <u/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>array</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">consume_item </t>
+      <t xml:space="preserve">consume_num </t>
     </r>
     <r>
       <rPr>
@@ -306,29 +307,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">consume_num </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <u/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>int</t>
-    </r>
-  </si>
-  <si>
     <t>威严玉露</t>
   </si>
   <si>
@@ -353,6 +331,15 @@
     <t>增加卡牌100点魅力属性</t>
   </si>
   <si>
+    <t>随性玉露</t>
+  </si>
+  <si>
+    <t>增加卡牌100点随机属性</t>
+  </si>
+  <si>
+    <t>114001,114002,114003,114004</t>
+  </si>
+  <si>
     <t>威严清浆</t>
   </si>
   <si>
@@ -377,6 +364,12 @@
     <t>增加卡牌500点魅力属性</t>
   </si>
   <si>
+    <t>随性清浆</t>
+  </si>
+  <si>
+    <t>增加卡牌500点随机属性</t>
+  </si>
+  <si>
     <t>威严灵泉</t>
   </si>
   <si>
@@ -401,6 +394,12 @@
     <t>增加卡牌1000点魅力属性</t>
   </si>
   <si>
+    <t>随性灵泉</t>
+  </si>
+  <si>
+    <t>增加卡牌1000点随机属性</t>
+  </si>
+  <si>
     <t>威严天酿</t>
   </si>
   <si>
@@ -423,6 +422,84 @@
   </si>
   <si>
     <t>增加卡牌5000点魅力属性</t>
+  </si>
+  <si>
+    <t>随性天酿</t>
+  </si>
+  <si>
+    <t>增加卡牌5000点随机属性</t>
+  </si>
+  <si>
+    <t>成长礼包</t>
+  </si>
+  <si>
+    <t>使用后获得50点成长值</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>成长礼盒</t>
+  </si>
+  <si>
+    <t>使用后获得500点成长值</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>技能经验包</t>
+  </si>
+  <si>
+    <t>使用后增加技能经验50</t>
+  </si>
+  <si>
+    <t>星瓶碎片</t>
+  </si>
+  <si>
+    <t>增加卡牌星运碎片50</t>
+  </si>
+  <si>
+    <t>技能经验书</t>
+  </si>
+  <si>
+    <t>使用后随机门客获得5~1000技能经验</t>
+  </si>
+  <si>
+    <t>115004</t>
+  </si>
+  <si>
+    <t>5,1000</t>
+  </si>
+  <si>
+    <t>书籍经验书</t>
+  </si>
+  <si>
+    <t>使用后随机门客获得5~1000书籍经验</t>
+  </si>
+  <si>
+    <t>115003</t>
+  </si>
+  <si>
+    <t>铜钱符</t>
+  </si>
+  <si>
+    <t>使用后增加10万铜钱</t>
+  </si>
+  <si>
+    <t>100000</t>
+  </si>
+  <si>
+    <t>阅历符</t>
+  </si>
+  <si>
+    <t>使用后增加10万阅历</t>
+  </si>
+  <si>
+    <t>声望符</t>
+  </si>
+  <si>
+    <t>使用后增加10万声望</t>
   </si>
 </sst>
 </file>
@@ -430,12 +507,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -458,7 +535,40 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -472,29 +582,72 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -509,24 +662,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -540,62 +677,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -614,6 +696,13 @@
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -636,19 +725,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -660,157 +887,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -840,16 +929,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -866,23 +964,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -904,30 +1017,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -944,163 +1033,184 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1429,19 +1539,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="2" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="10.875" style="1" customWidth="1"/>
     <col min="3" max="3" width="32" style="1" customWidth="1"/>
-    <col min="4" max="5" width="15.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="32.125" style="2" customWidth="1"/>
     <col min="6" max="6" width="15.375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.625" style="2" customWidth="1"/>
     <col min="8" max="8" width="14.375" style="1" customWidth="1"/>
     <col min="9" max="9" width="15.75" style="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="1"/>
@@ -1452,68 +1564,68 @@
   </cols>
   <sheetData>
     <row r="1" ht="114.75" spans="1:9">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" ht="32.25" spans="1:9">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="4">
-        <v>101001</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="7">
+        <v>201001</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -1522,13 +1634,13 @@
       <c r="D3" s="1">
         <v>1</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="9">
         <v>114001</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="2">
         <v>100</v>
       </c>
       <c r="H3" s="1">
@@ -1539,10 +1651,10 @@
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="4">
-        <v>101002</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="7">
+        <v>201002</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -1551,13 +1663,13 @@
       <c r="D4" s="1">
         <v>1</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="9">
         <v>114002</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="2">
         <v>100</v>
       </c>
       <c r="H4" s="1">
@@ -1566,14 +1678,14 @@
       <c r="I4" s="1">
         <v>0</v>
       </c>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="4">
-        <v>101003</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="A5" s="7">
+        <v>201003</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -1582,13 +1694,13 @@
       <c r="D5" s="1">
         <v>1</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="9">
         <v>114003</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="2">
         <v>100</v>
       </c>
       <c r="H5" s="1">
@@ -1597,14 +1709,14 @@
       <c r="I5" s="1">
         <v>0</v>
       </c>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="4">
-        <v>101004</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="A6" s="7">
+        <v>201004</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -1613,13 +1725,13 @@
       <c r="D6" s="1">
         <v>1</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="9">
         <v>114004</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="2">
         <v>100</v>
       </c>
       <c r="H6" s="1">
@@ -1628,364 +1740,738 @@
       <c r="I6" s="1">
         <v>0</v>
       </c>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="4">
-        <v>101011</v>
-      </c>
-      <c r="B7" s="4" t="s">
+      <c r="A7" s="7">
+        <v>201005</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="10" t="s">
         <v>27</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2">
+        <v>100</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="7">
+        <v>201011</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="9">
         <v>114001</v>
       </c>
-      <c r="F7" s="1">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1">
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2">
         <v>500</v>
       </c>
-      <c r="H7" s="1">
-        <v>0</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0</v>
-      </c>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="4">
-        <v>101012</v>
-      </c>
-      <c r="B8" s="4" t="s">
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="7">
+        <v>201012</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="9">
+        <v>114002</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2">
+        <v>500</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="7">
+        <v>201013</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="9">
+        <v>114003</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="2">
+        <v>500</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="12"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="7">
+        <v>201014</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="9">
+        <v>114004</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2">
+        <v>500</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="7">
+        <v>201015</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-      <c r="E8" s="4">
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2">
+        <v>500</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="7">
+        <v>201021</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="9">
+        <v>114001</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="7">
+        <v>201022</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="9">
         <v>114002</v>
       </c>
-      <c r="F8" s="1">
-        <v>1</v>
-      </c>
-      <c r="G8" s="1">
-        <v>500</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0</v>
-      </c>
-      <c r="I8" s="1">
-        <v>0</v>
-      </c>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="4">
-        <v>101013</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-      <c r="E9" s="4">
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="7">
+        <v>201023</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="9">
         <v>114003</v>
       </c>
-      <c r="F9" s="1">
-        <v>1</v>
-      </c>
-      <c r="G9" s="1">
-        <v>500</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0</v>
-      </c>
-      <c r="I9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="4">
-        <v>101014</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1</v>
-      </c>
-      <c r="E10" s="4">
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="7">
+        <v>201024</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="9">
         <v>114004</v>
       </c>
-      <c r="F10" s="1">
-        <v>1</v>
-      </c>
-      <c r="G10" s="1">
-        <v>500</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0</v>
-      </c>
-      <c r="I10" s="1">
-        <v>0</v>
-      </c>
-      <c r="K10" s="5"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="4">
-        <v>101021</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1</v>
-      </c>
-      <c r="E11" s="4">
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="7">
+        <v>201025</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="7">
+        <v>201031</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="9">
         <v>114001</v>
       </c>
-      <c r="F11" s="1">
-        <v>1</v>
-      </c>
-      <c r="G11" s="1">
-        <v>1000</v>
-      </c>
-      <c r="H11" s="1">
-        <v>0</v>
-      </c>
-      <c r="I11" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="4">
-        <v>101022</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="1">
-        <v>1</v>
-      </c>
-      <c r="E12" s="4">
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="2">
+        <v>5000</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="7">
+        <v>201032</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" s="9">
         <v>114002</v>
       </c>
-      <c r="F12" s="1">
-        <v>1</v>
-      </c>
-      <c r="G12" s="1">
-        <v>1000</v>
-      </c>
-      <c r="H12" s="1">
-        <v>0</v>
-      </c>
-      <c r="I12" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="4">
-        <v>101023</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1</v>
-      </c>
-      <c r="E13" s="4">
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" s="2">
+        <v>5000</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="7">
+        <v>201033</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="9">
         <v>114003</v>
       </c>
-      <c r="F13" s="1">
-        <v>1</v>
-      </c>
-      <c r="G13" s="1">
-        <v>1000</v>
-      </c>
-      <c r="H13" s="1">
-        <v>0</v>
-      </c>
-      <c r="I13" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="4">
-        <v>101024</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="1">
-        <v>1</v>
-      </c>
-      <c r="E14" s="4">
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+      <c r="G20" s="2">
+        <v>5000</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="7">
+        <v>201034</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="E21" s="9">
         <v>114004</v>
       </c>
-      <c r="F14" s="1">
-        <v>1</v>
-      </c>
-      <c r="G14" s="1">
-        <v>1000</v>
-      </c>
-      <c r="H14" s="1">
-        <v>0</v>
-      </c>
-      <c r="I14" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="4">
-        <v>101031</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="1">
-        <v>1</v>
-      </c>
-      <c r="E15" s="4">
-        <v>114001</v>
-      </c>
-      <c r="F15" s="1">
-        <v>1</v>
-      </c>
-      <c r="G15" s="1">
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+      <c r="G21" s="2">
         <v>5000</v>
       </c>
-      <c r="H15" s="1">
-        <v>0</v>
-      </c>
-      <c r="I15" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="4">
-        <v>101032</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="1">
-        <v>1</v>
-      </c>
-      <c r="E16" s="4">
-        <v>114002</v>
-      </c>
-      <c r="F16" s="1">
-        <v>1</v>
-      </c>
-      <c r="G16" s="1">
+      <c r="H21" s="1">
+        <v>0</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="7">
+        <v>201035</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+      <c r="G22" s="2">
         <v>5000</v>
       </c>
-      <c r="H16" s="1">
-        <v>0</v>
-      </c>
-      <c r="I16" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="4">
-        <v>101033</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" s="1">
-        <v>1</v>
-      </c>
-      <c r="E17" s="4">
-        <v>114003</v>
-      </c>
-      <c r="F17" s="1">
-        <v>1</v>
-      </c>
-      <c r="G17" s="1">
-        <v>5000</v>
-      </c>
-      <c r="H17" s="1">
-        <v>0</v>
-      </c>
-      <c r="I17" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="4">
-        <v>101034</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" s="1">
-        <v>1</v>
-      </c>
-      <c r="E18" s="4">
-        <v>114004</v>
-      </c>
-      <c r="F18" s="1">
-        <v>1</v>
-      </c>
-      <c r="G18" s="1">
-        <v>5000</v>
-      </c>
-      <c r="H18" s="1">
-        <v>0</v>
-      </c>
-      <c r="I18" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" s="4"/>
+      <c r="H22" s="1">
+        <v>0</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="11">
+        <v>201001</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="7">
+        <v>115001</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="11">
+        <v>201002</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="7">
+        <v>115001</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="11">
+        <v>203003</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1</v>
+      </c>
+      <c r="E25" s="7">
+        <v>115004</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="7">
+        <v>203004</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1</v>
+      </c>
+      <c r="E26" s="7">
+        <v>115003</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="7">
+        <v>203005</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" s="1">
+        <v>2</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F27" s="1">
+        <v>2</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="7">
+        <v>203006</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28" s="1">
+        <v>2</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F28" s="1">
+        <v>2</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="7">
+        <v>204001</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0</v>
+      </c>
+      <c r="E29" s="7">
+        <v>112001</v>
+      </c>
+      <c r="F29" s="1">
+        <v>1</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0</v>
+      </c>
+      <c r="I29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="7">
+        <v>204002</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0</v>
+      </c>
+      <c r="E30" s="7">
+        <v>112002</v>
+      </c>
+      <c r="F30" s="1">
+        <v>1</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0</v>
+      </c>
+      <c r="I30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="7">
+        <v>204003</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0</v>
+      </c>
+      <c r="E31" s="7">
+        <v>112003</v>
+      </c>
+      <c r="F31" s="1">
+        <v>1</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0</v>
+      </c>
+      <c r="I31" s="1">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/common/Spell.xlsx
+++ b/common/Spell.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84">
   <si>
     <t>序号</t>
   </si>
@@ -46,6 +46,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">增加属性id
 </t>
     </r>
@@ -62,13 +69,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">效果值类型
 </t>
     </r>
@@ -80,8 +80,9 @@
         <charset val="134"/>
       </rPr>
       <t>1=固定值
-2=随机值
-3=倍率值</t>
+2=权重随机值
+3=倍率值
+4=随机区间</t>
     </r>
   </si>
   <si>
@@ -97,8 +98,9 @@
         <charset val="134"/>
       </rPr>
       <t>固定值=数值
-随机值=min,max
-倍率值=数值/100</t>
+权重随机值=[值,权重,值,权重...]
+倍率值=数值/100
+随机区间=min,max</t>
     </r>
   </si>
   <si>
@@ -201,6 +203,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">effect_par </t>
     </r>
     <r>
@@ -469,16 +478,19 @@
     <t>115004</t>
   </si>
   <si>
+    <t>5,100,50,80,100,70,200,1000</t>
+  </si>
+  <si>
+    <t>书籍经验书</t>
+  </si>
+  <si>
+    <t>使用后随机门客获得5~1000书籍经验</t>
+  </si>
+  <si>
+    <t>115003</t>
+  </si>
+  <si>
     <t>5,1000</t>
-  </si>
-  <si>
-    <t>书籍经验书</t>
-  </si>
-  <si>
-    <t>使用后随机门客获得5~1000书籍经验</t>
-  </si>
-  <si>
-    <t>115003</t>
   </si>
   <si>
     <t>铜钱符</t>
@@ -507,10 +519,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -539,6 +551,51 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -546,13 +603,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -560,15 +611,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -582,45 +657,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -630,6 +666,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -637,47 +681,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -725,181 +737,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -928,6 +940,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -945,26 +966,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -981,21 +986,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1017,11 +1007,33 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1033,10 +1045,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1045,133 +1057,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1541,8 +1553,8 @@
   <sheetPr/>
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1553,7 +1565,7 @@
     <col min="4" max="4" width="15.25" style="1" customWidth="1"/>
     <col min="5" max="5" width="32.125" style="2" customWidth="1"/>
     <col min="6" max="6" width="15.375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="36" style="2" customWidth="1"/>
     <col min="8" max="8" width="14.375" style="1" customWidth="1"/>
     <col min="9" max="9" width="15.75" style="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="1"/>
@@ -2377,7 +2389,7 @@
         <v>2</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H28" s="1">
         <v>0</v>
@@ -2391,10 +2403,10 @@
         <v>204001</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D29" s="1">
         <v>0</v>
@@ -2406,7 +2418,7 @@
         <v>1</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H29" s="1">
         <v>0</v>
@@ -2420,10 +2432,10 @@
         <v>204002</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D30" s="1">
         <v>0</v>
@@ -2435,7 +2447,7 @@
         <v>1</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H30" s="1">
         <v>0</v>
@@ -2449,10 +2461,10 @@
         <v>204003</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D31" s="1">
         <v>0</v>
@@ -2464,7 +2476,7 @@
         <v>1</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H31" s="1">
         <v>0</v>

--- a/common/Spell.xlsx
+++ b/common/Spell.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24180" windowHeight="13065"/>
+    <workbookView windowWidth="23535" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="83">
   <si>
     <t>序号</t>
   </si>
@@ -26,6 +26,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">目标类型
 </t>
     </r>
@@ -69,6 +76,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">效果值类型
 </t>
     </r>
@@ -87,6 +101,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">效果值
 </t>
     </r>
@@ -478,7 +499,7 @@
     <t>115004</t>
   </si>
   <si>
-    <t>5,100,50,80,100,70,200,1000</t>
+    <t>5,66,10,8,20,7,50,6,100,5,200,4,500,3,1000,1</t>
   </si>
   <si>
     <t>书籍经验书</t>
@@ -488,9 +509,6 @@
   </si>
   <si>
     <t>115003</t>
-  </si>
-  <si>
-    <t>5,1000</t>
   </si>
   <si>
     <t>铜钱符</t>
@@ -551,99 +569,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -665,11 +592,108 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -681,15 +705,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -737,43 +755,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -785,133 +923,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -944,7 +962,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -970,6 +1003,24 @@
         <color theme="4"/>
       </top>
       <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1004,39 +1055,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1045,10 +1063,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1057,133 +1075,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1549,12 +1567,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -2340,7 +2358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" ht="33" spans="1:9">
       <c r="A27" s="7">
         <v>203005</v>
       </c>
@@ -2369,7 +2387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" ht="33" spans="1:9">
       <c r="A28" s="7">
         <v>203006</v>
       </c>
@@ -2389,7 +2407,7 @@
         <v>2</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H28" s="1">
         <v>0</v>
@@ -2403,10 +2421,10 @@
         <v>204001</v>
       </c>
       <c r="B29" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" s="10" t="s">
         <v>77</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>78</v>
       </c>
       <c r="D29" s="1">
         <v>0</v>
@@ -2418,7 +2436,7 @@
         <v>1</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H29" s="1">
         <v>0</v>
@@ -2432,10 +2450,10 @@
         <v>204002</v>
       </c>
       <c r="B30" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C30" s="10" t="s">
         <v>80</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>81</v>
       </c>
       <c r="D30" s="1">
         <v>0</v>
@@ -2447,7 +2465,7 @@
         <v>1</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H30" s="1">
         <v>0</v>
@@ -2461,10 +2479,10 @@
         <v>204003</v>
       </c>
       <c r="B31" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" s="10" t="s">
         <v>82</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>83</v>
       </c>
       <c r="D31" s="1">
         <v>0</v>
@@ -2476,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H31" s="1">
         <v>0</v>

--- a/common/Spell.xlsx
+++ b/common/Spell.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23535" windowHeight="12465"/>
+    <workbookView windowWidth="24180" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83">
   <si>
     <t>序号</t>
   </si>
@@ -537,10 +537,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -570,6 +570,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -578,22 +593,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -606,6 +606,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -613,9 +629,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -629,14 +668,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -658,56 +705,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -761,169 +761,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -958,26 +958,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -993,6 +993,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1017,40 +1041,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1063,10 +1063,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1075,133 +1075,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1567,12 +1567,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -2244,7 +2244,7 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="11">
-        <v>201001</v>
+        <v>203001</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>59</v>
@@ -2273,7 +2273,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="11">
-        <v>201002</v>
+        <v>203002</v>
       </c>
       <c r="B24" s="11" t="s">
         <v>62</v>
